--- a/src/main/java/com/longstudy/compiler/result/result1.xlsx
+++ b/src/main/java/com/longstudy/compiler/result/result1.xlsx
@@ -214,7 +214,7 @@
     </row>
     <row r="2" customHeight="true" ht="25.0">
       <c r="A2" s="5" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B2" s="6" t="inlineStr">
         <is>
@@ -222,17 +222,17 @@
         </is>
       </c>
       <c r="C2" s="7" t="n">
-        <v>129.0</v>
+        <v>127.0</v>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>double</t>
         </is>
       </c>
     </row>
     <row r="3" customHeight="true" ht="25.0">
       <c r="A3" s="5" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B3" s="6" t="inlineStr">
         <is>
@@ -244,13 +244,13 @@
       </c>
       <c r="D3" s="8" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>d</t>
         </is>
       </c>
     </row>
     <row r="4" customHeight="true" ht="25.0">
       <c r="A4" s="5" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B4" s="6" t="inlineStr">
         <is>
@@ -268,25 +268,25 @@
     </row>
     <row r="5" customHeight="true" ht="25.0">
       <c r="A5" s="5" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B5" s="6" t="inlineStr">
         <is>
-          <t>整型常量</t>
+          <t>浮点型常量</t>
         </is>
       </c>
       <c r="C5" s="7" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>100.0e-5</t>
         </is>
       </c>
     </row>
     <row r="6" customHeight="true" ht="25.0">
       <c r="A6" s="5" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B6" s="6" t="inlineStr">
         <is>
@@ -304,7 +304,7 @@
     </row>
     <row r="7" customHeight="true" ht="25.0">
       <c r="A7" s="5" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B7" s="6" t="inlineStr">
         <is>
@@ -312,17 +312,17 @@
         </is>
       </c>
       <c r="C7" s="7" t="n">
-        <v>127.0</v>
+        <v>129.0</v>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>double</t>
+          <t>int</t>
         </is>
       </c>
     </row>
     <row r="8" customHeight="true" ht="25.0">
       <c r="A8" s="5" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B8" s="6" t="inlineStr">
         <is>
@@ -334,13 +334,13 @@
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>x</t>
         </is>
       </c>
     </row>
     <row r="9" customHeight="true" ht="25.0">
       <c r="A9" s="5" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B9" s="6" t="inlineStr">
         <is>
@@ -358,647 +358,1079 @@
     </row>
     <row r="10" customHeight="true" ht="25.0">
       <c r="A10" s="5" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B10" s="6" t="inlineStr">
         <is>
-          <t>整型常量</t>
+          <t>16进制整型常量</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0x454fab</t>
         </is>
       </c>
     </row>
     <row r="11" customHeight="true" ht="25.0">
       <c r="A11" s="5" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B11" s="6" t="inlineStr">
         <is>
-          <t>操作符</t>
+          <t>界符</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
-        <v>33.0</v>
+        <v>12.0</v>
       </c>
       <c r="D11" s="8" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>;</t>
         </is>
       </c>
     </row>
     <row r="12" customHeight="true" ht="25.0">
       <c r="A12" s="5" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="B12" s="6" t="inlineStr">
         <is>
-          <t>操作符</t>
+          <t>关键字</t>
         </is>
       </c>
       <c r="C12" s="7" t="n">
-        <v>21.0</v>
+        <v>129.0</v>
       </c>
       <c r="D12" s="8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>int</t>
         </is>
       </c>
     </row>
     <row r="13" customHeight="true" ht="25.0">
       <c r="A13" s="5" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="B13" s="6" t="inlineStr">
         <is>
-          <t>整型常量</t>
+          <t>标识符</t>
         </is>
       </c>
       <c r="C13" s="7" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="D13" s="8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>eight</t>
         </is>
       </c>
     </row>
     <row r="14" customHeight="true" ht="25.0">
       <c r="A14" s="5" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="B14" s="6" t="inlineStr">
         <is>
-          <t>界符</t>
+          <t>操作符</t>
         </is>
       </c>
       <c r="C14" s="7" t="n">
-        <v>12.0</v>
+        <v>31.0</v>
       </c>
       <c r="D14" s="8" t="inlineStr">
         <is>
-          <t>;</t>
+          <t>=</t>
         </is>
       </c>
     </row>
     <row r="15" customHeight="true" ht="25.0">
       <c r="A15" s="5" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="B15" s="6" t="inlineStr">
         <is>
-          <t>关键字</t>
+          <t>8进制整型常量</t>
         </is>
       </c>
       <c r="C15" s="7" t="n">
-        <v>132.0</v>
+        <v>2.0</v>
       </c>
       <c r="D15" s="8" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>01234521</t>
         </is>
       </c>
     </row>
     <row r="16" customHeight="true" ht="25.0">
       <c r="A16" s="5" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="B16" s="6" t="inlineStr">
         <is>
-          <t>标识符</t>
+          <t>界符</t>
         </is>
       </c>
       <c r="C16" s="7" t="n">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
       <c r="D16" s="8" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>;</t>
         </is>
       </c>
     </row>
     <row r="17" customHeight="true" ht="25.0">
       <c r="A17" s="5" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="B17" s="6" t="inlineStr">
         <is>
-          <t>操作符</t>
+          <t>关键字</t>
         </is>
       </c>
       <c r="C17" s="7" t="n">
-        <v>31.0</v>
+        <v>129.0</v>
       </c>
       <c r="D17" s="8" t="inlineStr">
         <is>
-          <t>=</t>
+          <t>int</t>
         </is>
       </c>
     </row>
     <row r="18" customHeight="true" ht="25.0">
       <c r="A18" s="5" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="B18" s="6" t="inlineStr">
         <is>
-          <t>字符串常量</t>
+          <t>标识符</t>
         </is>
       </c>
       <c r="C18" s="7" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="D18" s="8" t="inlineStr">
         <is>
-          <t>"dasdad"</t>
+          <t>a</t>
         </is>
       </c>
     </row>
     <row r="19" customHeight="true" ht="25.0">
       <c r="A19" s="5" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B19" s="6" t="inlineStr">
         <is>
-          <t>关键字</t>
+          <t>操作符</t>
         </is>
       </c>
       <c r="C19" s="7" t="n">
-        <v>126.0</v>
+        <v>31.0</v>
       </c>
       <c r="D19" s="8" t="inlineStr">
         <is>
-          <t>char</t>
+          <t>=</t>
         </is>
       </c>
     </row>
     <row r="20" customHeight="true" ht="25.0">
       <c r="A20" s="5" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B20" s="6" t="inlineStr">
         <is>
-          <t>标识符</t>
+          <t>浮点型常量</t>
         </is>
       </c>
       <c r="C20" s="7" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>124e+45</t>
         </is>
       </c>
     </row>
     <row r="21" customHeight="true" ht="25.0">
       <c r="A21" s="5" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B21" s="6" t="inlineStr">
         <is>
-          <t>操作符</t>
+          <t>界符</t>
         </is>
       </c>
       <c r="C21" s="7" t="n">
-        <v>31.0</v>
+        <v>12.0</v>
       </c>
       <c r="D21" s="8" t="inlineStr">
         <is>
-          <t>=</t>
+          <t>;</t>
         </is>
       </c>
     </row>
     <row r="22" customHeight="true" ht="25.0">
       <c r="A22" s="5" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="B22" s="6" t="inlineStr">
         <is>
-          <t>字符常量</t>
+          <t>关键字</t>
         </is>
       </c>
       <c r="C22" s="7" t="n">
-        <v>7.0</v>
+        <v>129.0</v>
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>'\\'</t>
+          <t>int</t>
         </is>
       </c>
     </row>
     <row r="23" customHeight="true" ht="25.0">
       <c r="A23" s="5" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="B23" s="6" t="inlineStr">
         <is>
-          <t>界符</t>
+          <t>标识符</t>
         </is>
       </c>
       <c r="C23" s="7" t="n">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>;</t>
+          <t>q</t>
         </is>
       </c>
     </row>
     <row r="24" customHeight="true" ht="25.0">
       <c r="A24" s="5" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="B24" s="6" t="inlineStr">
         <is>
-          <t>关键字</t>
+          <t>操作符</t>
         </is>
       </c>
       <c r="C24" s="7" t="n">
-        <v>126.0</v>
+        <v>31.0</v>
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>char</t>
+          <t>=</t>
         </is>
       </c>
     </row>
     <row r="25" customHeight="true" ht="25.0">
       <c r="A25" s="5" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="B25" s="6" t="inlineStr">
         <is>
-          <t>标识符</t>
+          <t>16进制整型常量</t>
         </is>
       </c>
       <c r="C25" s="7" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="26" customHeight="true" ht="25.0">
       <c r="A26" s="5" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="B26" s="6" t="inlineStr">
         <is>
-          <t>操作符</t>
+          <t>界符</t>
         </is>
       </c>
       <c r="C26" s="7" t="n">
-        <v>31.0</v>
+        <v>12.0</v>
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>=</t>
+          <t>;</t>
         </is>
       </c>
     </row>
     <row r="27" customHeight="true" ht="25.0">
       <c r="A27" s="5" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="B27" s="6" t="inlineStr">
         <is>
-          <t>字符常量</t>
+          <t>关键字</t>
         </is>
       </c>
       <c r="C27" s="7" t="n">
-        <v>7.0</v>
+        <v>128.0</v>
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>'\n'</t>
+          <t>float</t>
         </is>
       </c>
     </row>
     <row r="28" customHeight="true" ht="25.0">
       <c r="A28" s="5" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="B28" s="6" t="inlineStr">
         <is>
-          <t>界符</t>
+          <t>标识符</t>
         </is>
       </c>
       <c r="C28" s="7" t="n">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>;</t>
+          <t>f1</t>
         </is>
       </c>
     </row>
     <row r="29" customHeight="true" ht="25.0">
       <c r="A29" s="5" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="B29" s="6" t="inlineStr">
         <is>
-          <t>关键字</t>
+          <t>操作符</t>
         </is>
       </c>
       <c r="C29" s="7" t="n">
-        <v>126.0</v>
+        <v>31.0</v>
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>char</t>
+          <t>=</t>
         </is>
       </c>
     </row>
     <row r="30" customHeight="true" ht="25.0">
       <c r="A30" s="5" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="B30" s="6" t="inlineStr">
         <is>
-          <t>标识符</t>
+          <t>浮点型常量</t>
         </is>
       </c>
       <c r="C30" s="7" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>3.156E+8</t>
         </is>
       </c>
     </row>
     <row r="31" customHeight="true" ht="25.0">
       <c r="A31" s="5" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="B31" s="6" t="inlineStr">
         <is>
-          <t>操作符</t>
+          <t>界符</t>
         </is>
       </c>
       <c r="C31" s="7" t="n">
-        <v>31.0</v>
+        <v>12.0</v>
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>=</t>
+          <t>;</t>
         </is>
       </c>
     </row>
     <row r="32" customHeight="true" ht="25.0">
       <c r="A32" s="5" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="B32" s="6" t="inlineStr">
         <is>
-          <t>字符常量</t>
+          <t>关键字</t>
         </is>
       </c>
       <c r="C32" s="7" t="n">
-        <v>7.0</v>
+        <v>128.0</v>
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>'\t'</t>
+          <t>float</t>
         </is>
       </c>
     </row>
     <row r="33" customHeight="true" ht="25.0">
       <c r="A33" s="5" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="B33" s="6" t="inlineStr">
         <is>
-          <t>界符</t>
+          <t>标识符</t>
         </is>
       </c>
       <c r="C33" s="7" t="n">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>;</t>
+          <t>f2</t>
         </is>
       </c>
     </row>
     <row r="34" customHeight="true" ht="25.0">
       <c r="A34" s="5" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="B34" s="6" t="inlineStr">
         <is>
-          <t>关键字</t>
+          <t>操作符</t>
         </is>
       </c>
       <c r="C34" s="7" t="n">
-        <v>126.0</v>
+        <v>31.0</v>
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>char</t>
+          <t>=</t>
         </is>
       </c>
     </row>
     <row r="35" customHeight="true" ht="25.0">
       <c r="A35" s="5" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="B35" s="6" t="inlineStr">
         <is>
-          <t>标识符</t>
+          <t>浮点型常量</t>
         </is>
       </c>
       <c r="C35" s="7" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="D35" s="8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>3.156e+8</t>
         </is>
       </c>
     </row>
     <row r="36" customHeight="true" ht="25.0">
       <c r="A36" s="5" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="B36" s="6" t="inlineStr">
         <is>
-          <t>操作符</t>
+          <t>界符</t>
         </is>
       </c>
       <c r="C36" s="7" t="n">
-        <v>31.0</v>
+        <v>12.0</v>
       </c>
       <c r="D36" s="8" t="inlineStr">
         <is>
-          <t>=</t>
+          <t>;</t>
         </is>
       </c>
     </row>
     <row r="37" customHeight="true" ht="25.0">
       <c r="A37" s="5" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="B37" s="6" t="inlineStr">
         <is>
-          <t>界符</t>
+          <t>关键字</t>
         </is>
       </c>
       <c r="C37" s="7" t="n">
-        <v>12.0</v>
+        <v>128.0</v>
       </c>
       <c r="D37" s="8" t="inlineStr">
         <is>
-          <t>;</t>
+          <t>float</t>
         </is>
       </c>
     </row>
     <row r="38" customHeight="true" ht="25.0">
       <c r="A38" s="5" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="B38" s="6" t="inlineStr">
         <is>
-          <t>关键字</t>
+          <t>标识符</t>
         </is>
       </c>
       <c r="C38" s="7" t="n">
-        <v>129.0</v>
+        <v>7.0</v>
       </c>
       <c r="D38" s="8" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>f3</t>
         </is>
       </c>
     </row>
     <row r="39" customHeight="true" ht="25.0">
       <c r="A39" s="5" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="B39" s="6" t="inlineStr">
         <is>
-          <t>标识符</t>
+          <t>操作符</t>
         </is>
       </c>
       <c r="C39" s="7" t="n">
-        <v>7.0</v>
+        <v>31.0</v>
       </c>
       <c r="D39" s="8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>=</t>
         </is>
       </c>
     </row>
     <row r="40" customHeight="true" ht="25.0">
       <c r="A40" s="5" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="B40" s="6" t="inlineStr">
         <is>
-          <t>操作符</t>
+          <t>浮点型常量</t>
         </is>
       </c>
       <c r="C40" s="7" t="n">
-        <v>31.0</v>
+        <v>4.0</v>
       </c>
       <c r="D40" s="8" t="inlineStr">
         <is>
-          <t>=</t>
+          <t>9.156E-9</t>
         </is>
       </c>
     </row>
     <row r="41" customHeight="true" ht="25.0">
       <c r="A41" s="5" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="B41" s="6" t="inlineStr">
         <is>
-          <t>整型常量</t>
+          <t>界符</t>
         </is>
       </c>
       <c r="C41" s="7" t="n">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c r="D41" s="8" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>;</t>
         </is>
       </c>
     </row>
     <row r="42" customHeight="true" ht="25.0">
       <c r="A42" s="5" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="B42" s="6" t="inlineStr">
         <is>
-          <t>操作符</t>
+          <t>关键字</t>
         </is>
       </c>
       <c r="C42" s="7" t="n">
-        <v>20.0</v>
+        <v>128.0</v>
       </c>
       <c r="D42" s="8" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>float</t>
         </is>
       </c>
     </row>
     <row r="43" customHeight="true" ht="25.0">
       <c r="A43" s="5" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="B43" s="6" t="inlineStr">
         <is>
-          <t>操作符</t>
+          <t>标识符</t>
         </is>
       </c>
       <c r="C43" s="7" t="n">
-        <v>20.0</v>
+        <v>7.0</v>
       </c>
       <c r="D43" s="8" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>f4</t>
         </is>
       </c>
     </row>
     <row r="44" customHeight="true" ht="25.0">
       <c r="A44" s="5" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="B44" s="6" t="inlineStr">
         <is>
-          <t>整型常量</t>
+          <t>操作符</t>
         </is>
       </c>
       <c r="C44" s="7" t="n">
-        <v>1.0</v>
+        <v>31.0</v>
       </c>
       <c r="D44" s="8" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>=</t>
         </is>
       </c>
     </row>
     <row r="45" customHeight="true" ht="25.0">
       <c r="A45" s="5" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="B45" s="6" t="inlineStr">
         <is>
+          <t>浮点型常量</t>
+        </is>
+      </c>
+      <c r="C45" s="7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D45" s="8" t="inlineStr">
+        <is>
+          <t>10.156e-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" customHeight="true" ht="25.0">
+      <c r="A46" s="5" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B46" s="6" t="inlineStr">
+        <is>
           <t>界符</t>
         </is>
       </c>
-      <c r="C45" s="7" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="D45" s="8" t="inlineStr">
+      <c r="C46" s="7" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D46" s="8" t="inlineStr">
+        <is>
+          <t>;</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" customHeight="true" ht="25.0">
+      <c r="A47" s="5" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B47" s="6" t="inlineStr">
+        <is>
+          <t>关键字</t>
+        </is>
+      </c>
+      <c r="C47" s="7" t="n">
+        <v>129.0</v>
+      </c>
+      <c r="D47" s="8" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" customHeight="true" ht="25.0">
+      <c r="A48" s="5" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B48" s="6" t="inlineStr">
+        <is>
+          <t>标识符</t>
+        </is>
+      </c>
+      <c r="C48" s="7" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D48" s="8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" customHeight="true" ht="25.0">
+      <c r="A49" s="5" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B49" s="6" t="inlineStr">
+        <is>
+          <t>操作符</t>
+        </is>
+      </c>
+      <c r="C49" s="7" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="D49" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" customHeight="true" ht="25.0">
+      <c r="A50" s="5" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B50" s="6" t="inlineStr">
+        <is>
+          <t>界符</t>
+        </is>
+      </c>
+      <c r="C50" s="7" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D50" s="8" t="inlineStr">
+        <is>
+          <t>;</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" customHeight="true" ht="25.0">
+      <c r="A51" s="5" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B51" s="6" t="inlineStr">
+        <is>
+          <t>关键字</t>
+        </is>
+      </c>
+      <c r="C51" s="7" t="n">
+        <v>129.0</v>
+      </c>
+      <c r="D51" s="8" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" customHeight="true" ht="25.0">
+      <c r="A52" s="5" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B52" s="6" t="inlineStr">
+        <is>
+          <t>标识符</t>
+        </is>
+      </c>
+      <c r="C52" s="7" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D52" s="8" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" customHeight="true" ht="25.0">
+      <c r="A53" s="5" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B53" s="6" t="inlineStr">
+        <is>
+          <t>操作符</t>
+        </is>
+      </c>
+      <c r="C53" s="7" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="D53" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" customHeight="true" ht="25.0">
+      <c r="A54" s="5" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B54" s="6" t="inlineStr">
+        <is>
+          <t>界符</t>
+        </is>
+      </c>
+      <c r="C54" s="7" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D54" s="8" t="inlineStr">
+        <is>
+          <t>;</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" customHeight="true" ht="25.0">
+      <c r="A55" s="5" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B55" s="6" t="inlineStr">
+        <is>
+          <t>关键字</t>
+        </is>
+      </c>
+      <c r="C55" s="7" t="n">
+        <v>129.0</v>
+      </c>
+      <c r="D55" s="8" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" customHeight="true" ht="25.0">
+      <c r="A56" s="5" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B56" s="6" t="inlineStr">
+        <is>
+          <t>标识符</t>
+        </is>
+      </c>
+      <c r="C56" s="7" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D56" s="8" t="inlineStr">
+        <is>
+          <t>z</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" customHeight="true" ht="25.0">
+      <c r="A57" s="5" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B57" s="6" t="inlineStr">
+        <is>
+          <t>操作符</t>
+        </is>
+      </c>
+      <c r="C57" s="7" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="D57" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" customHeight="true" ht="25.0">
+      <c r="A58" s="5" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B58" s="6" t="inlineStr">
+        <is>
+          <t>界符</t>
+        </is>
+      </c>
+      <c r="C58" s="7" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D58" s="8" t="inlineStr">
+        <is>
+          <t>;</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" customHeight="true" ht="25.0">
+      <c r="A59" s="5" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B59" s="6" t="inlineStr">
+        <is>
+          <t>关键字</t>
+        </is>
+      </c>
+      <c r="C59" s="7" t="n">
+        <v>129.0</v>
+      </c>
+      <c r="D59" s="8" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" customHeight="true" ht="25.0">
+      <c r="A60" s="5" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B60" s="6" t="inlineStr">
+        <is>
+          <t>标识符</t>
+        </is>
+      </c>
+      <c r="C60" s="7" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D60" s="8" t="inlineStr">
+        <is>
+          <t>num</t>
+        </is>
+      </c>
+    </row>
+    <row r="61" customHeight="true" ht="25.0">
+      <c r="A61" s="5" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B61" s="6" t="inlineStr">
+        <is>
+          <t>操作符</t>
+        </is>
+      </c>
+      <c r="C61" s="7" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="D61" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+    </row>
+    <row r="62" customHeight="true" ht="25.0">
+      <c r="A62" s="5" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B62" s="6" t="inlineStr">
+        <is>
+          <t>界符</t>
+        </is>
+      </c>
+      <c r="C62" s="7" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D62" s="8" t="inlineStr">
+        <is>
+          <t>;</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" customHeight="true" ht="25.0">
+      <c r="A63" s="5" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B63" s="6" t="inlineStr">
+        <is>
+          <t>关键字</t>
+        </is>
+      </c>
+      <c r="C63" s="7" t="n">
+        <v>129.0</v>
+      </c>
+      <c r="D63" s="8" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+    </row>
+    <row r="64" customHeight="true" ht="25.0">
+      <c r="A64" s="5" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B64" s="6" t="inlineStr">
+        <is>
+          <t>标识符</t>
+        </is>
+      </c>
+      <c r="C64" s="7" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D64" s="8" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+    </row>
+    <row r="65" customHeight="true" ht="25.0">
+      <c r="A65" s="5" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B65" s="6" t="inlineStr">
+        <is>
+          <t>操作符</t>
+        </is>
+      </c>
+      <c r="C65" s="7" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="D65" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+    </row>
+    <row r="66" customHeight="true" ht="25.0">
+      <c r="A66" s="5" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B66" s="6" t="inlineStr">
+        <is>
+          <t>16进制整型常量</t>
+        </is>
+      </c>
+      <c r="C66" s="7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D66" s="8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="67" customHeight="true" ht="25.0">
+      <c r="A67" s="5" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B67" s="6" t="inlineStr">
+        <is>
+          <t>操作符</t>
+        </is>
+      </c>
+      <c r="C67" s="7" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D67" s="8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+    </row>
+    <row r="68" customHeight="true" ht="25.0">
+      <c r="A68" s="5" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B68" s="6" t="inlineStr">
+        <is>
+          <t>整型常量</t>
+        </is>
+      </c>
+      <c r="C68" s="7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D68" s="8" t="inlineStr">
+        <is>
+          <t>454</t>
+        </is>
+      </c>
+    </row>
+    <row r="69" customHeight="true" ht="25.0">
+      <c r="A69" s="5" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B69" s="6" t="inlineStr">
+        <is>
+          <t>界符</t>
+        </is>
+      </c>
+      <c r="C69" s="7" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D69" s="8" t="inlineStr">
         <is>
           <t>;</t>
         </is>
@@ -1035,31 +1467,41 @@
     </row>
     <row r="2" customHeight="true" ht="25.0">
       <c r="A2" s="11" t="n">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>Lexical error at Line [4]: [确认无符号常数输入正确].</t>
+          <t>Lexical error at Line [14]: [浮点数或常数输入格式错误].</t>
         </is>
       </c>
     </row>
     <row r="3" customHeight="true" ht="25.0">
       <c r="A3" s="11" t="n">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>Lexical error at Line [9]: [字符常量格式不正确].</t>
+          <t>Lexical error at Line [15]: [浮点数或常数输入格式错误].</t>
         </is>
       </c>
     </row>
     <row r="4" customHeight="true" ht="25.0">
       <c r="A4" s="11" t="n">
-        <v>10.0</v>
+        <v>16.0</v>
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>Lexical error at Line [10]: [确认无符号常数输入正确].</t>
+          <t>Lexical error at Line [16]: [浮点数或常数输入格式错误].</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" customHeight="true" ht="25.0">
+      <c r="A5" s="11" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B5" s="12" t="inlineStr">
+        <is>
+          <t>Lexical error at Line [17]: [浮点数或常数输入格式错误].</t>
         </is>
       </c>
     </row>
